--- a/data/trans_orig/P1419-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>18674</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11233</v>
+        <v>11524</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28305</v>
+        <v>29068</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02690802691722775</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01618604427614282</v>
+        <v>0.01660475003516897</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04078400407022086</v>
+        <v>0.04188462518430672</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -765,19 +765,19 @@
         <v>54171</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41538</v>
+        <v>42285</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69551</v>
+        <v>68879</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07869743860290135</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06034462486173182</v>
+        <v>0.0614289098460962</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1010395150696656</v>
+        <v>0.1000630775698323</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -786,19 +786,19 @@
         <v>72846</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58109</v>
+        <v>57924</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90913</v>
+        <v>89985</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05269668794902251</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04203599068333013</v>
+        <v>0.04190243509573683</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06576647018862247</v>
+        <v>0.06509500188578228</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>675338</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>665707</v>
+        <v>664944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>682779</v>
+        <v>682488</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9730919730827723</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.959215995929779</v>
+        <v>0.9581153748156932</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9838139557238572</v>
+        <v>0.983395249964831</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>641</v>
@@ -836,19 +836,19 @@
         <v>634180</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>618800</v>
+        <v>619472</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>646813</v>
+        <v>646066</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9213025613970987</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8989604849303344</v>
+        <v>0.8999369224301677</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9396553751382682</v>
+        <v>0.9385710901539038</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1306</v>
@@ -857,19 +857,19 @@
         <v>1309517</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1291450</v>
+        <v>1292378</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1324254</v>
+        <v>1324439</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9473033120509775</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9342335298113775</v>
+        <v>0.9349049981142177</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9579640093166691</v>
+        <v>0.9580975649042631</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>27735</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18666</v>
+        <v>19529</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40865</v>
+        <v>40172</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02883663857927284</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01940774083659783</v>
+        <v>0.02030492738501056</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0424875430330993</v>
+        <v>0.04176753076629653</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -982,19 +982,19 @@
         <v>105333</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>86461</v>
+        <v>86357</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>124890</v>
+        <v>124610</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1087711651461016</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08928327019818454</v>
+        <v>0.08917561559327765</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1289664833973623</v>
+        <v>0.128676724535552</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>121</v>
@@ -1003,19 +1003,19 @@
         <v>133068</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>108010</v>
+        <v>111136</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>155858</v>
+        <v>159609</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06894041995773302</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05595811398056573</v>
+        <v>0.05757749361650467</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08074723533628607</v>
+        <v>0.08269079209456397</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>934065</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>920935</v>
+        <v>921628</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>943134</v>
+        <v>942271</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9711633614207271</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.957512456966901</v>
+        <v>0.9582324692337038</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9805922591634023</v>
+        <v>0.9796950726149894</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>812</v>
@@ -1053,19 +1053,19 @@
         <v>863060</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>843503</v>
+        <v>843783</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>881932</v>
+        <v>882036</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8912288348538984</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8710335166026378</v>
+        <v>0.8713232754644481</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9107167298018155</v>
+        <v>0.9108243844067225</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1683</v>
@@ -1074,19 +1074,19 @@
         <v>1797125</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1774335</v>
+        <v>1770584</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1822183</v>
+        <v>1819057</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.931059580042267</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9192527646637139</v>
+        <v>0.9173092079054359</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9440418860194342</v>
+        <v>0.9424225063834953</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>22191</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14209</v>
+        <v>13698</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33717</v>
+        <v>34667</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0327048951830086</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02094093000955705</v>
+        <v>0.02018815397902319</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04969309838107368</v>
+        <v>0.05109227532206115</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -1199,19 +1199,19 @@
         <v>78610</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63355</v>
+        <v>62488</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94644</v>
+        <v>94417</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1149539292479482</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09264546457911606</v>
+        <v>0.09137803056252589</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1384010889956736</v>
+        <v>0.1380692600342294</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -1220,19 +1220,19 @@
         <v>100801</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82496</v>
+        <v>83301</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>120318</v>
+        <v>121346</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07399037005780688</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06055440165910959</v>
+        <v>0.06114540489989955</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08831650847300225</v>
+        <v>0.08907096191154976</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>656318</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>644792</v>
+        <v>643842</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>664300</v>
+        <v>664811</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9672951048169914</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9503069016189264</v>
+        <v>0.9489077246779388</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.979059069990443</v>
+        <v>0.9798118460209768</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>614</v>
@@ -1270,19 +1270,19 @@
         <v>605231</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>589197</v>
+        <v>589424</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>620486</v>
+        <v>621353</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8850460707520518</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8615989110043263</v>
+        <v>0.8619307399657704</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9073545354208835</v>
+        <v>0.9086219694374741</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1235</v>
@@ -1291,19 +1291,19 @@
         <v>1261549</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1242032</v>
+        <v>1241004</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1279854</v>
+        <v>1279049</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9260096299421932</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9116834915269979</v>
+        <v>0.9109290380884504</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9394455983408906</v>
+        <v>0.9388545951001005</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>30478</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21590</v>
+        <v>21643</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41366</v>
+        <v>42331</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03234740662711583</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02291363744264642</v>
+        <v>0.02296991187234628</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04390256641533218</v>
+        <v>0.04492680340394647</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>121</v>
@@ -1416,19 +1416,19 @@
         <v>126223</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>107539</v>
+        <v>106624</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>150017</v>
+        <v>150798</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1215301921107766</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1035409801299301</v>
+        <v>0.1026602374450346</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1444395331248895</v>
+        <v>0.1451916089156858</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>155</v>
@@ -1437,19 +1437,19 @@
         <v>156701</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>135632</v>
+        <v>134014</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>183695</v>
+        <v>183445</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07910867325184982</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06847214829479892</v>
+        <v>0.06765547127461544</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09273638869872096</v>
+        <v>0.09260986371821184</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>911744</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>900856</v>
+        <v>899891</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>920632</v>
+        <v>920579</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9676525933728842</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9560974335846678</v>
+        <v>0.9550731965960536</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9770863625573536</v>
+        <v>0.9770300881276538</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>876</v>
@@ -1487,19 +1487,19 @@
         <v>912389</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>888595</v>
+        <v>887814</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>931073</v>
+        <v>931988</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8784698078892234</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8555604668751106</v>
+        <v>0.8548083910843144</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8964590198700698</v>
+        <v>0.8973397625549655</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1836</v>
@@ -1508,19 +1508,19 @@
         <v>1824133</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1797139</v>
+        <v>1797389</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1845202</v>
+        <v>1846820</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9208913267481502</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.907263611301279</v>
+        <v>0.9073901362817882</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.931527851705201</v>
+        <v>0.9323445287253845</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>99079</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80964</v>
+        <v>81296</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>120304</v>
+        <v>122651</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03023875351463116</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02471005503793902</v>
+        <v>0.02481157632633572</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0367167843875673</v>
+        <v>0.03743316686085231</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>354</v>
@@ -1633,19 +1633,19 @@
         <v>364338</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>327860</v>
+        <v>330106</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>404256</v>
+        <v>404240</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1078178104653652</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09702312699098127</v>
+        <v>0.09768768418091697</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.119630666628669</v>
+        <v>0.1196260605721394</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>451</v>
@@ -1654,19 +1654,19 @@
         <v>463416</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>420478</v>
+        <v>423027</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>506109</v>
+        <v>503676</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06962654745453964</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06317519645404583</v>
+        <v>0.06355816105474427</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07604098589077291</v>
+        <v>0.0756753997284475</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3177464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3156239</v>
+        <v>3153892</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3195579</v>
+        <v>3195247</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9697612464853689</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9632832156124328</v>
+        <v>0.9625668331391478</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.975289944962061</v>
+        <v>0.9751884236736645</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2943</v>
@@ -1704,19 +1704,19 @@
         <v>3014859</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2974941</v>
+        <v>2974957</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3051337</v>
+        <v>3049091</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8921821895346348</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8803693333713307</v>
+        <v>0.8803739394278606</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9029768730090187</v>
+        <v>0.902312315819083</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6060</v>
@@ -1725,19 +1725,19 @@
         <v>6192325</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6149632</v>
+        <v>6152065</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6235263</v>
+        <v>6232714</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9303734525454603</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9239590141092271</v>
+        <v>0.9243246002715525</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9368248035459542</v>
+        <v>0.9364418389452557</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>11509</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5772</v>
+        <v>5846</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20623</v>
+        <v>21090</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01636061451765266</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008205595673504032</v>
+        <v>0.008309649228108597</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02931602909660732</v>
+        <v>0.02998032985571107</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -2090,19 +2090,19 @@
         <v>61088</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46992</v>
+        <v>47255</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>76936</v>
+        <v>77042</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08763765919659906</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06741580321318287</v>
+        <v>0.06779276276350815</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1103739665473803</v>
+        <v>0.1105259328503344</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -2111,19 +2111,19 @@
         <v>72597</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58133</v>
+        <v>56900</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92508</v>
+        <v>91252</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05183579530443819</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04150839073985833</v>
+        <v>0.04062814816586304</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06605244929719467</v>
+        <v>0.06515553443985732</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>691960</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>682846</v>
+        <v>682379</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>697697</v>
+        <v>697623</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9836393854823473</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9706839709033926</v>
+        <v>0.9700196701442889</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9917944043264959</v>
+        <v>0.9916903507718913</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>594</v>
@@ -2161,19 +2161,19 @@
         <v>635962</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>620114</v>
+        <v>620008</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>650058</v>
+        <v>649795</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.912362340803401</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8896260334526196</v>
+        <v>0.8894740671496656</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.932584196786817</v>
+        <v>0.932207237236492</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1258</v>
@@ -2182,19 +2182,19 @@
         <v>1327922</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1308011</v>
+        <v>1309267</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1342386</v>
+        <v>1343619</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9481642046955618</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9339475507028053</v>
+        <v>0.9348444655601426</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9584916092601417</v>
+        <v>0.959371851834137</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>11115</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5441</v>
+        <v>5571</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19205</v>
+        <v>19585</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01091917969173736</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005344708510782601</v>
+        <v>0.005472341644907532</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01886647848353858</v>
+        <v>0.01924016098697501</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -2307,19 +2307,19 @@
         <v>93756</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>75228</v>
+        <v>77159</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>112835</v>
+        <v>115140</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09111605093794808</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0731093605717848</v>
+        <v>0.07498657331710797</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1096580973110882</v>
+        <v>0.111898196177894</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>96</v>
@@ -2328,19 +2328,19 @@
         <v>104871</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>85221</v>
+        <v>84390</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126549</v>
+        <v>125034</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0512336151720543</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04163395317931066</v>
+        <v>0.04122755716681688</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0618240179463528</v>
+        <v>0.06108401291384274</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>1006832</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>998742</v>
+        <v>998362</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1012506</v>
+        <v>1012376</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9890808203082626</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9811335215164615</v>
+        <v>0.980759839013025</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9946552914892174</v>
+        <v>0.9945276583550925</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>852</v>
@@ -2378,19 +2378,19 @@
         <v>935217</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>916138</v>
+        <v>913833</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>953745</v>
+        <v>951814</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9088839490620519</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8903419026889112</v>
+        <v>0.8881018038221057</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9268906394282149</v>
+        <v>0.9250134266828918</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1778</v>
@@ -2399,19 +2399,19 @@
         <v>1942050</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1920372</v>
+        <v>1921887</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1961700</v>
+        <v>1962531</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9487663848279457</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9381759820536472</v>
+        <v>0.9389159870861573</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9583660468206894</v>
+        <v>0.9587724428331831</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>8064</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3093</v>
+        <v>3064</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17046</v>
+        <v>15983</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01064335571699689</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004082556776371492</v>
+        <v>0.004043961997772364</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02249967130688713</v>
+        <v>0.02109594081565935</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -2524,19 +2524,19 @@
         <v>60967</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46248</v>
+        <v>46569</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79733</v>
+        <v>76934</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07844678315576002</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05950812672850621</v>
+        <v>0.05992118611754656</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1025936395563051</v>
+        <v>0.09899195184257395</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -2545,19 +2545,19 @@
         <v>69030</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53550</v>
+        <v>52094</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>86497</v>
+        <v>86952</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04497691926620872</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03489034775961761</v>
+        <v>0.0339416865562639</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05635704375384936</v>
+        <v>0.05665345533534695</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>749559</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>740577</v>
+        <v>741640</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>754530</v>
+        <v>754559</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9893566442830031</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9775003286931128</v>
+        <v>0.9789040591843409</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9959174432236284</v>
+        <v>0.9959560380022277</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>649</v>
@@ -2595,19 +2595,19 @@
         <v>716207</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>697441</v>
+        <v>700240</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>730926</v>
+        <v>730605</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.92155321684424</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8974063604436949</v>
+        <v>0.9010080481574261</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9404918732714939</v>
+        <v>0.9400788138824534</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1331</v>
@@ -2616,19 +2616,19 @@
         <v>1465767</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1448300</v>
+        <v>1447845</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1481247</v>
+        <v>1482703</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9550230807337913</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9436429562461506</v>
+        <v>0.943346544664653</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9651096522403823</v>
+        <v>0.9660583134437359</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>10100</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4085</v>
+        <v>4967</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19211</v>
+        <v>19735</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01065680486369888</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004310506605444531</v>
+        <v>0.005241047292567426</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02027047006074925</v>
+        <v>0.02082297311028523</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -2741,19 +2741,19 @@
         <v>83874</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65321</v>
+        <v>67106</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101160</v>
+        <v>103980</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07973554693564591</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06209758329957375</v>
+        <v>0.06379467822518629</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0961684760652798</v>
+        <v>0.09884927059251288</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -2762,19 +2762,19 @@
         <v>93974</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73876</v>
+        <v>76421</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112500</v>
+        <v>115067</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04699533810896776</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03694448857757748</v>
+        <v>0.03821745206819402</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05625990952080443</v>
+        <v>0.05754362006915924</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>937639</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>928528</v>
+        <v>928004</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>943654</v>
+        <v>942772</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9893431951363011</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9797295299392508</v>
+        <v>0.9791770268897152</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9956894933945555</v>
+        <v>0.9947589527074325</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>923</v>
@@ -2812,19 +2812,19 @@
         <v>968027</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>950741</v>
+        <v>947921</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>986580</v>
+        <v>984795</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9202644530643541</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.90383152393472</v>
+        <v>0.901150729407487</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9379024167004256</v>
+        <v>0.9362053217748133</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1824</v>
@@ -2833,19 +2833,19 @@
         <v>1905666</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1887140</v>
+        <v>1884573</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1925764</v>
+        <v>1923219</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9530046618910323</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9437400904791954</v>
+        <v>0.9424563799308409</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9630555114224225</v>
+        <v>0.9617825479318062</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>40788</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28517</v>
+        <v>29281</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54411</v>
+        <v>56833</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01190268261632861</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008321914230386985</v>
+        <v>0.008544790778515452</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01587805664747063</v>
+        <v>0.01658484248647284</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>278</v>
@@ -2958,19 +2958,19 @@
         <v>299684</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>268838</v>
+        <v>268332</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>336173</v>
+        <v>333160</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08429711105301943</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07562042602825234</v>
+        <v>0.0754780933745748</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09456085062818462</v>
+        <v>0.09371339908290738</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>314</v>
@@ -2979,19 +2979,19 @@
         <v>340472</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>303307</v>
+        <v>306565</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>378187</v>
+        <v>378251</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04876516366056659</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04344210027482111</v>
+        <v>0.04390865101475343</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05416702218811009</v>
+        <v>0.05417611118663095</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3385991</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3372368</v>
+        <v>3369946</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3398262</v>
+        <v>3397498</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9880973173836713</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9841219433525294</v>
+        <v>0.9834151575135271</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.991678085769613</v>
+        <v>0.9914552092214846</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3018</v>
@@ -3029,19 +3029,19 @@
         <v>3255414</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3218925</v>
+        <v>3221938</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3286260</v>
+        <v>3286766</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9157028889469806</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9054391493718151</v>
+        <v>0.9062866009170925</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9243795739717475</v>
+        <v>0.9245219066254251</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6191</v>
@@ -3050,19 +3050,19 @@
         <v>6641405</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6603690</v>
+        <v>6603626</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6678570</v>
+        <v>6675312</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9512348363394334</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.94583297781189</v>
+        <v>0.945823888813369</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9565578997251791</v>
+        <v>0.9560913489852463</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>9596</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4860</v>
+        <v>4146</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17790</v>
+        <v>17604</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01422079628918176</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007202867419986313</v>
+        <v>0.006143579747607352</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02636397388574494</v>
+        <v>0.0260880480930265</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -3415,19 +3415,19 @@
         <v>30632</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19607</v>
+        <v>20778</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43102</v>
+        <v>44167</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04552694165138545</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02914035424143052</v>
+        <v>0.03088035781285157</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06405961702733667</v>
+        <v>0.06564250858087785</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -3436,19 +3436,19 @@
         <v>40228</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29878</v>
+        <v>28736</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56406</v>
+        <v>54884</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02985109157509879</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02217038589944607</v>
+        <v>0.02132338795075308</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04185578195766051</v>
+        <v>0.04072607956730733</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>665204</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>657010</v>
+        <v>657196</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>669940</v>
+        <v>670654</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9857792037108183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.973636026114255</v>
+        <v>0.9739119519069734</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9927971325800136</v>
+        <v>0.9938564202523926</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>638</v>
@@ -3486,19 +3486,19 @@
         <v>642207</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>629737</v>
+        <v>628672</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>653232</v>
+        <v>652061</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9544730583486145</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9359403829726631</v>
+        <v>0.9343574914191222</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9708596457585694</v>
+        <v>0.9691196421871486</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1281</v>
@@ -3507,19 +3507,19 @@
         <v>1307411</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1291233</v>
+        <v>1292755</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1317761</v>
+        <v>1318903</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9701489084249012</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9581442180423398</v>
+        <v>0.9592739204326924</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9778296141005541</v>
+        <v>0.9786766120492468</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>8945</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3937</v>
+        <v>3869</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16002</v>
+        <v>15650</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008749169117860304</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003850903138861354</v>
+        <v>0.003784216907545099</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01565065475873759</v>
+        <v>0.01530661147181049</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -3632,19 +3632,19 @@
         <v>77217</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61516</v>
+        <v>61109</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>99016</v>
+        <v>97178</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07403930775914373</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05898511857892953</v>
+        <v>0.05859440498646983</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09494174586870163</v>
+        <v>0.09317926141952591</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -3653,19 +3653,19 @@
         <v>86162</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>69238</v>
+        <v>67628</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>109445</v>
+        <v>106109</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04171797949282064</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03352379519385734</v>
+        <v>0.03274431921538774</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05299107799793368</v>
+        <v>0.05137595632286645</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>1013486</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1006429</v>
+        <v>1006781</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1018494</v>
+        <v>1018562</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9912508308821397</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9843493452412624</v>
+        <v>0.9846933885281897</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9961490968611386</v>
+        <v>0.996215783092455</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>913</v>
@@ -3703,19 +3703,19 @@
         <v>965696</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>943897</v>
+        <v>945735</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>981397</v>
+        <v>981804</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9259606922408563</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9050582541312983</v>
+        <v>0.9068207385804745</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9410148814210704</v>
+        <v>0.9414055950135302</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1855</v>
@@ -3724,19 +3724,19 @@
         <v>1979182</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1955899</v>
+        <v>1959235</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1996106</v>
+        <v>1997716</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9582820205071794</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9470089220020659</v>
+        <v>0.9486240436771336</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9664762048061425</v>
+        <v>0.9672556807846122</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>11422</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6621</v>
+        <v>6023</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18847</v>
+        <v>20201</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01503754487493809</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008717294536778731</v>
+        <v>0.007929232768860752</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0248130981020463</v>
+        <v>0.02659654701168981</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -3849,19 +3849,19 @@
         <v>33801</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23265</v>
+        <v>22848</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47919</v>
+        <v>46276</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04305854526925634</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02963689687686615</v>
+        <v>0.02910590068357214</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06104302044191975</v>
+        <v>0.05894952792056656</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -3870,19 +3870,19 @@
         <v>45223</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32603</v>
+        <v>33901</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60945</v>
+        <v>60594</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02927897649596131</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02110853368764652</v>
+        <v>0.02194866914113218</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03945756666700034</v>
+        <v>0.03923063844067554</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>748130</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>740705</v>
+        <v>739351</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>752931</v>
+        <v>753529</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9849624551250619</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9751869018979537</v>
+        <v>0.9734034529883103</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9912827054632212</v>
+        <v>0.9920707672311394</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>706</v>
@@ -3920,19 +3920,19 @@
         <v>751210</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>737092</v>
+        <v>738735</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>761746</v>
+        <v>762163</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9569414547307437</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9389569795580803</v>
+        <v>0.9410504720794334</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9703631031231339</v>
+        <v>0.9708940993164279</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1390</v>
@@ -3941,19 +3941,19 @@
         <v>1499340</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1483618</v>
+        <v>1483969</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1511960</v>
+        <v>1510662</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9707210235040387</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9605424333329993</v>
+        <v>0.9607693615593247</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9788914663123531</v>
+        <v>0.9780513308588679</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>22378</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14612</v>
+        <v>12906</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34545</v>
+        <v>33041</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02386794844949326</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01558515221541117</v>
+        <v>0.01376528974835838</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03684546152889034</v>
+        <v>0.03524120497947298</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -4066,19 +4066,19 @@
         <v>76607</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59082</v>
+        <v>60665</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96424</v>
+        <v>96557</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07339417197111267</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05660387904696101</v>
+        <v>0.05812027822601109</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09237933739871149</v>
+        <v>0.09250713678895003</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -4087,19 +4087,19 @@
         <v>98985</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79587</v>
+        <v>78944</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>121012</v>
+        <v>120967</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04995851131986077</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0401679392613578</v>
+        <v>0.03984336927924294</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0610754899376215</v>
+        <v>0.06105300089194012</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>915189</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>903022</v>
+        <v>904526</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>922955</v>
+        <v>924661</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9761320515505068</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9631545384711098</v>
+        <v>0.9647587950205271</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9844148477845888</v>
+        <v>0.9862347102516417</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>894</v>
@@ -4137,19 +4137,19 @@
         <v>967172</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>947355</v>
+        <v>947222</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>984697</v>
+        <v>983114</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9266058280288874</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9076206626012887</v>
+        <v>0.9074928632110499</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.943396120953039</v>
+        <v>0.9418797217739889</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1806</v>
@@ -4158,19 +4158,19 @@
         <v>1882361</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1860334</v>
+        <v>1860379</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1901759</v>
+        <v>1902402</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9500414886801393</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9389245100623784</v>
+        <v>0.9389469991080599</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9598320607386419</v>
+        <v>0.9601566307207571</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>52341</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39496</v>
+        <v>38814</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>67563</v>
+        <v>68805</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01542009898235469</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0116358945316479</v>
+        <v>0.01143489442991734</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01990460939253804</v>
+        <v>0.02027032827971853</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>187</v>
@@ -4283,19 +4283,19 @@
         <v>218258</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>188859</v>
+        <v>189381</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>247444</v>
+        <v>250455</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06157568046127089</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05328149660140567</v>
+        <v>0.05342894227592656</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06981000136150362</v>
+        <v>0.07065947332709893</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>237</v>
@@ -4304,19 +4304,19 @@
         <v>270599</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>238098</v>
+        <v>237783</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>306332</v>
+        <v>308941</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03899740627773214</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03431353413956627</v>
+        <v>0.03426814894405213</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0441471124840507</v>
+        <v>0.04452307355838149</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3342009</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3326787</v>
+        <v>3325545</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3354854</v>
+        <v>3355536</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9845799010176454</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9800953906074619</v>
+        <v>0.9797296717202814</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9883641054683521</v>
+        <v>0.9885651055700826</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3151</v>
@@ -4354,19 +4354,19 @@
         <v>3326284</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3297098</v>
+        <v>3294087</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3355683</v>
+        <v>3355161</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9384243195387291</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9301899986384963</v>
+        <v>0.929340526672901</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.946718503398594</v>
+        <v>0.9465710577240734</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6332</v>
@@ -4375,19 +4375,19 @@
         <v>6668293</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6632560</v>
+        <v>6629951</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6700794</v>
+        <v>6701109</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9610025937222678</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9558528875159492</v>
+        <v>0.9554769264416186</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9656864658604337</v>
+        <v>0.9657318510559481</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>27040</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17508</v>
+        <v>18549</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36962</v>
+        <v>38626</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03914755966658779</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02534812402094646</v>
+        <v>0.02685526912619036</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05351287739653595</v>
+        <v>0.05592241439384284</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>170</v>
@@ -4740,19 +4740,19 @@
         <v>85014</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70794</v>
+        <v>72659</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98918</v>
+        <v>99538</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1160252513852293</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09661755763183877</v>
+        <v>0.09916301122944596</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1350004580932521</v>
+        <v>0.1358474329083818</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>203</v>
@@ -4761,19 +4761,19 @@
         <v>112054</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>95409</v>
+        <v>96127</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>130200</v>
+        <v>131584</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07872091918210591</v>
+        <v>0.07872091918210593</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06702773624071416</v>
+        <v>0.06753175864981817</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09146939593770857</v>
+        <v>0.09244116999446422</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>663670</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>653748</v>
+        <v>652084</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>673202</v>
+        <v>672161</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9608524403334122</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9464871226034641</v>
+        <v>0.9440775856061574</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9746518759790535</v>
+        <v>0.9731447308738098</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1068</v>
@@ -4811,19 +4811,19 @@
         <v>647708</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>633804</v>
+        <v>633184</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>661928</v>
+        <v>660063</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8839747486147707</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8649995419067479</v>
+        <v>0.8641525670916169</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.903382442368161</v>
+        <v>0.9008369887705541</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1765</v>
@@ -4832,19 +4832,19 @@
         <v>1311377</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1293231</v>
+        <v>1291847</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1328022</v>
+        <v>1327304</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9212790808178941</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9085306040622914</v>
+        <v>0.9075588300055358</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9329722637592859</v>
+        <v>0.9324682413501818</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>31516</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22300</v>
+        <v>22441</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43568</v>
+        <v>43220</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03004575418857731</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02125996331672797</v>
+        <v>0.02139477309474131</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04153622668782886</v>
+        <v>0.04120460467101742</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>194</v>
@@ -4957,19 +4957,19 @@
         <v>114014</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>97628</v>
+        <v>98307</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>130372</v>
+        <v>130165</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.106606543262756</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09128523556915603</v>
+        <v>0.09191982859873397</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1219014560882977</v>
+        <v>0.1217082353835908</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>233</v>
@@ -4978,19 +4978,19 @@
         <v>145529</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>126816</v>
+        <v>126900</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>164934</v>
+        <v>165891</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06869779754969006</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05986401726649606</v>
+        <v>0.05990366449761084</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07785794228386575</v>
+        <v>0.07830938082139317</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1017401</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1005349</v>
+        <v>1005697</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1026617</v>
+        <v>1026476</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9699542458114228</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.958463773312171</v>
+        <v>0.9587953953289826</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9787400366832719</v>
+        <v>0.9786052269052583</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1320</v>
@@ -5028,19 +5028,19 @@
         <v>955470</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>939112</v>
+        <v>939319</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>971856</v>
+        <v>971177</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8933934567372441</v>
+        <v>0.8933934567372442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8780985439117021</v>
+        <v>0.8782917646164092</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9087147644308438</v>
+        <v>0.908080171401266</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2245</v>
@@ -5049,19 +5049,19 @@
         <v>1972872</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1953467</v>
+        <v>1952510</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1991585</v>
+        <v>1991501</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9313022024503101</v>
+        <v>0.93130220245031</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9221420577161346</v>
+        <v>0.9216906191786067</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9401359827335046</v>
+        <v>0.9400963355023892</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>35840</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26606</v>
+        <v>25176</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49754</v>
+        <v>48668</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04473169921038176</v>
+        <v>0.04473169921038177</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03320637573008398</v>
+        <v>0.03142192191067462</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06209828308111404</v>
+        <v>0.06074258743642801</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>136</v>
@@ -5174,19 +5174,19 @@
         <v>93696</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78662</v>
+        <v>78863</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>109041</v>
+        <v>109497</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1154491994888711</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09692517795274894</v>
+        <v>0.09717285408672958</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1343575238997291</v>
+        <v>0.1349186217142499</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -5195,19 +5195,19 @@
         <v>129536</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112662</v>
+        <v>110316</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>151275</v>
+        <v>149530</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08031755263618094</v>
+        <v>0.08031755263618093</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06985545648713307</v>
+        <v>0.06840081426283658</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09379669112940284</v>
+        <v>0.09271504987799391</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>765377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>751463</v>
+        <v>752549</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>774611</v>
+        <v>776041</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9552683007896182</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9379017169188859</v>
+        <v>0.9392574125635719</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9667936242699159</v>
+        <v>0.9685780780893252</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>910</v>
@@ -5245,19 +5245,19 @@
         <v>717880</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>702535</v>
+        <v>702079</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>732914</v>
+        <v>732713</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8845508005111289</v>
+        <v>0.884550800511129</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8656424761002709</v>
+        <v>0.86508137828575</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.903074822047251</v>
+        <v>0.9028271459132703</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1547</v>
@@ -5266,19 +5266,19 @@
         <v>1483257</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1461518</v>
+        <v>1463263</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1500131</v>
+        <v>1502477</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9196824473638192</v>
+        <v>0.919682447363819</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9062033088705972</v>
+        <v>0.9072849501220068</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.930144543512867</v>
+        <v>0.9315991857371635</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>40864</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30350</v>
+        <v>30688</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53269</v>
+        <v>52944</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04127378284065293</v>
+        <v>0.04127378284065294</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03065452078604112</v>
+        <v>0.0309957546737664</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0538034335756454</v>
+        <v>0.05347500604291061</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>181</v>
@@ -5391,19 +5391,19 @@
         <v>113612</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99216</v>
+        <v>99051</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>131878</v>
+        <v>131154</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.101654310497481</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08877331606990142</v>
+        <v>0.08862590417797839</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1179977693439393</v>
+        <v>0.1173500424539532</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>231</v>
@@ -5412,19 +5412,19 @@
         <v>154476</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>136634</v>
+        <v>135139</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>176619</v>
+        <v>176212</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07329135900945873</v>
+        <v>0.07329135900945874</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06482633829832649</v>
+        <v>0.06411694081110325</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08379698115124018</v>
+        <v>0.08360406680340617</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>949198</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>936793</v>
+        <v>937118</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>959712</v>
+        <v>959374</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9587262171593471</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9461965664243546</v>
+        <v>0.9465249939570897</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9693454792139589</v>
+        <v>0.9690042453262336</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1379</v>
@@ -5462,19 +5462,19 @@
         <v>1004022</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>985756</v>
+        <v>986480</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1018418</v>
+        <v>1018583</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8983456895025191</v>
+        <v>0.898345689502519</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8820022306560606</v>
+        <v>0.8826499575460468</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9112266839300984</v>
+        <v>0.9113740958220216</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2335</v>
@@ -5483,19 +5483,19 @@
         <v>1953220</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1931077</v>
+        <v>1931484</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1971062</v>
+        <v>1972557</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9267086409905411</v>
+        <v>0.9267086409905414</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9162030188487599</v>
+        <v>0.9163959331965937</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9351736617016734</v>
+        <v>0.9358830591888968</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>135259</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>114111</v>
+        <v>114262</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>159257</v>
+        <v>159871</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03830702820320399</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03231788471421401</v>
+        <v>0.03236046250818243</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04510363066679177</v>
+        <v>0.04527750880996773</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>681</v>
@@ -5608,19 +5608,19 @@
         <v>406336</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>376233</v>
+        <v>376729</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>436486</v>
+        <v>437447</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1088960222174735</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1008284081818562</v>
+        <v>0.1009615313616436</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.116975956090737</v>
+        <v>0.1172334572170692</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>840</v>
@@ -5629,19 +5629,19 @@
         <v>541595</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>506200</v>
+        <v>506301</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>579861</v>
+        <v>582490</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0745759892807021</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06970228890289258</v>
+        <v>0.06971613680761042</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07984514638403362</v>
+        <v>0.08020719445968978</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3395647</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3371649</v>
+        <v>3371035</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3416795</v>
+        <v>3416644</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.961692971796796</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9548963693332084</v>
+        <v>0.9547224911900319</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9676821152857861</v>
+        <v>0.9676395374918176</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4677</v>
@@ -5679,19 +5679,19 @@
         <v>3325079</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3294929</v>
+        <v>3293968</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3355182</v>
+        <v>3354686</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8911039777825265</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8830240439092634</v>
+        <v>0.8827665427829312</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8991715918181442</v>
+        <v>0.8990384686383565</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7892</v>
@@ -5700,19 +5700,19 @@
         <v>6720727</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6682461</v>
+        <v>6679832</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6756122</v>
+        <v>6756021</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.925424010719298</v>
+        <v>0.9254240107192978</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9201548536159665</v>
+        <v>0.9197928055403102</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9302977110971075</v>
+        <v>0.9302838631923895</v>
       </c>
     </row>
     <row r="18">
